--- a/va_facility_data_2025-02-20/Jennings VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Jennings%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Jennings VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Jennings%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R00d6ae9dbdbb4034a2e999e6a3548073"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R67d019cedb1c4bcd9e9f9fc563630850"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0f5fd63704c74a42aa8254da150c0b4a"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rcf71cd6722334abca42ba32c6b20fd89"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb90f125ecba64be2939a1ad05ed1415e"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfbeae84bcb6c4cd79f4e39497965535f"/>
   </x:sheets>
 </x:workbook>
 </file>
